--- a/va_facility_data_2025-02-20/David F. Winder Department of Veterans Affairs Community Based Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''David%20F.%20Winder%20Department%20of%20Veterans%20Affairs%20Community%20Based%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/David F. Winder Department of Veterans Affairs Community Based Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''David%20F.%20Winder%20Department%20of%20Veterans%20Affairs%20Community%20Based%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rab7a63bbfe01405b904d7f8e94425e47"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re437fec1a7184c848b59f84cfcca92db"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5fd73f4ed6274c3aaa7f27f6fe36d2ce"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb61e3906837544b98983d6eddae85d7f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R605f56cf69674496acc76c193219eb76"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R46155ec1342844cea38379df6b451e4a"/>
   </x:sheets>
 </x:workbook>
 </file>
